--- a/日経社説ー春秋/NY株二万ドルは持続可能か.xlsx
+++ b/日経社説ー春秋/NY株二万ドルは持続可能か.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywu\Desktop\translation\日経社説ー春秋\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,159 +19,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
-  <si>
-    <t>大台</t>
-  </si>
-  <si>
-    <t>株価指数</t>
-  </si>
-  <si>
-    <t>足元</t>
-  </si>
-  <si>
-    <t>先行き</t>
-  </si>
-  <si>
-    <t>激動</t>
-  </si>
-  <si>
-    <t>稼ぎ頭</t>
-  </si>
-  <si>
-    <t>縮小</t>
-  </si>
-  <si>
-    <t>シフト</t>
-  </si>
-  <si>
-    <t>途上</t>
-  </si>
-  <si>
-    <t>生まれ変わる</t>
-  </si>
-  <si>
-    <t>新陳代謝</t>
-  </si>
-  <si>
-    <t>様相</t>
-  </si>
-  <si>
-    <t>堅調</t>
-  </si>
-  <si>
-    <t>推移</t>
-  </si>
-  <si>
-    <t>げいどう</t>
-  </si>
-  <si>
-    <t>激しく揺れ動くこと。とくに、状況．情勢などが目まぐるしく変化すること。</t>
-  </si>
-  <si>
-    <t>かせぎがしら</t>
-  </si>
-  <si>
-    <t>稼ぎ手のうち、最も収入の多い者。また比喩的に、業界や企業などの中で、最も収益を挙げているもの。</t>
-  </si>
-  <si>
-    <t>しゅくしょう</t>
-  </si>
-  <si>
-    <t>縮まって小さくなること。また、縮めて小さくすること。</t>
-  </si>
-  <si>
-    <t>位置を移動すること。状態や体制などを移行すること。</t>
-  </si>
-  <si>
-    <t>とじょう</t>
-  </si>
-  <si>
-    <t>事業．計画などが目的に従って進行している途中。</t>
-  </si>
-  <si>
-    <t>うまれかわる</t>
-  </si>
-  <si>
-    <t>姿を変えて生まれる。</t>
-  </si>
-  <si>
-    <t>興す</t>
-  </si>
-  <si>
-    <t>おこす</t>
-  </si>
-  <si>
-    <t>活動を盛んにさせる。</t>
-  </si>
-  <si>
-    <t>しんちんたいしゃ</t>
-  </si>
-  <si>
-    <t>新しいものが古いものに取って代わること。</t>
-  </si>
-  <si>
-    <t>風土</t>
-  </si>
-  <si>
-    <t>ふうど</t>
-  </si>
-  <si>
-    <t>人間ど文科の形成などに影響を及ぼす精神的な環境。</t>
-  </si>
-  <si>
-    <t>ようそう</t>
-  </si>
-  <si>
-    <t>ありさま。姿。</t>
-  </si>
-  <si>
-    <t>けんちょう</t>
-  </si>
-  <si>
-    <t>堅実な調子であること。</t>
-  </si>
-  <si>
-    <t>すいい</t>
-  </si>
-  <si>
-    <t>時が経つにつれて状態が変化すること。移り変わっていくこと。</t>
-  </si>
-  <si>
-    <t>おおだい</t>
-  </si>
-  <si>
-    <t>株式相場で、100円を単位とした値段の区切りをいう。10円を単位とした「台」に対する語。</t>
-  </si>
-  <si>
-    <t>かぶかしすう</t>
-  </si>
-  <si>
-    <t>一定の時期の株価水準を100とし、その後の株価の変動を百分比で表した指数。</t>
-  </si>
-  <si>
-    <t>あしもと</t>
-  </si>
-  <si>
-    <t>身の回り。身辺。</t>
-  </si>
-  <si>
-    <t>さきゆき</t>
-  </si>
-  <si>
-    <t>将来の相場の動向。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>米国を代表する株価指数のダウ工業株３０種平均が初めて２万ドルを超えた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ダウ平均は１９９９年３月に初めて１万ドルを超えた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それ以降の約１８年間、米国はネットバブルの解放や同時テロ、金融危機など数々の試練を経験した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうした激動の中で構造改革を進めた多くの企業が米株式市場に活力を与えた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゼネラル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・エクトリック（GE)は稼ぎ頭だった金融業を縮小し、航空機エンジンなど製造業へのシフトを進めた。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>１８年前は経営再建の途上だったアップルは「IPHONE」など独創的な製品の発売で時価総額世界一の企業に生まれ変わった。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アップル復活に刺激された起業家が事業を興し、それが経済の新陳代謝を促した面も見逃せない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ただ、昨年来のトランプ相場は、米国の長期的な株価上昇と様相が異なる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点も多い。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幅広い企業の株価を反映するS＆P５００種株価指数は、ダウ平均ほど勢いよく上昇しているわけではない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米国の保護主義的な政策は、長い目で見て米企業の競争力を弱めかねない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そう考えれば、米株式相場が今後も長く堅調に推移するかどうかは不透明だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本企業は米国発の株価上昇に気を緩めることなく構造改革を進め、収益力を着実に向上させていく必要がある。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多くの企業が自由にリスクを取る事業風土が米経済の強みと言える。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界市場で米国勢と競う日本企業は改めて学ぶべきだ。</t>
+  </si>
+  <si>
+    <t>大統領選の投票以降、投資家の関心は政権との距離の近さが指摘される大手金融機関や、トランプ大統領の保護主義的な政策で恩恵を受けそうな一部製造業に集まっている。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -207,7 +161,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -265,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,7 +254,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,201 +431,105 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="69" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:1" ht="27">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="1:1" ht="27">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:1" ht="27">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="27">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="27">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="40.5">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="12" spans="1:1" ht="27">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:1" ht="27">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>